--- a/tables/zo.xlsx
+++ b/tables/zo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
   <si>
     <t>161-362-721 45</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>161-183-881 62</t>
+  </si>
+  <si>
+    <t>Баженов Данила Дмитриевич</t>
   </si>
   <si>
     <t xml:space="preserve">КБ ОП </t>
@@ -760,26 +763,29 @@
       <c r="A13" t="s">
         <v>42</v>
       </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P13" t="s">
         <v>6</v>
       </c>
       <c r="Q13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S13" t="s">
         <v>7</v>
@@ -790,10 +796,10 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J14" t="s">
         <v>31</v>
@@ -802,7 +808,7 @@
         <v>6</v>
       </c>
       <c r="Q14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S14" t="s">
         <v>7</v>

--- a/tables/zo.xlsx
+++ b/tables/zo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="101">
   <si>
     <t>161-362-721 45</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Черешкова Елизавета Андреевна</t>
   </si>
   <si>
-    <t xml:space="preserve">ПИ ЗО ПИ ЗО К </t>
+    <t>ПИ ЗО</t>
   </si>
   <si>
     <t>128</t>
@@ -58,121 +58,265 @@
     <t>Зайцева Валерия Андреевна</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1 - ПРИ соц  ЗО 2 - ПРИ экон мех  ЗО</t>
+  </si>
+  <si>
+    <t>163-393-138 69</t>
+  </si>
+  <si>
+    <t>Айталиева Мадина Муратовна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПИ ЗО ОК </t>
+  </si>
+  <si>
+    <t>167-478-250 11</t>
+  </si>
+  <si>
+    <t>Никитин Михаил Васильевич</t>
+  </si>
+  <si>
+    <t>142-053-977 39</t>
+  </si>
+  <si>
+    <t>Пушкина Мария Александровна</t>
+  </si>
+  <si>
+    <t>оригинал</t>
+  </si>
+  <si>
+    <t>лично</t>
+  </si>
+  <si>
+    <t>174-829-215 99</t>
+  </si>
+  <si>
+    <t>Власов Илья Павлович</t>
+  </si>
+  <si>
+    <t>161-217-059 27</t>
+  </si>
+  <si>
+    <t>Калинин Даниил Александрович</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2 - ПРИ соц  ЗО 3 - ПРИ экон мех  ЗО</t>
+  </si>
+  <si>
+    <t>189-210-930 85</t>
+  </si>
+  <si>
+    <t>ПИ</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>2 - ПРИ мех 3 - ПМИ 5 - МКН 6 - ИСТ</t>
+  </si>
+  <si>
+    <t>Нет документа об образовании</t>
+  </si>
+  <si>
+    <t>163-058-522 55</t>
+  </si>
+  <si>
+    <t>162-637-122 58</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>158-628-694 21</t>
+  </si>
+  <si>
+    <t>2 - ПРИ экон мех  ЗО</t>
+  </si>
+  <si>
+    <t>161-183-881 62</t>
+  </si>
+  <si>
+    <t>Баженов Данила Дмитриевич</t>
+  </si>
+  <si>
+    <t>КБ ОП</t>
+  </si>
+  <si>
+    <t>ПИ ЗО ОП</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Оригинал</t>
+  </si>
+  <si>
+    <t>1 - БИ ОП 3 - Менедж ОП 4 - ИСТ ОП</t>
+  </si>
+  <si>
+    <t>000122254</t>
+  </si>
+  <si>
+    <t>ПИ ЗО ОК</t>
+  </si>
+  <si>
+    <t>2 - ПРИ экон мех  ЗО 2 - ПРИ экон мех  ЗО ОК 3 - ППО  ЗО ОК 4 - ПРИ соц  ЗО ОК 5 - ППО  ЗО ОК 6 - Соц  ЗО ОК 7 - Серв  ЗО ОК</t>
+  </si>
+  <si>
+    <t>177-836-402 13</t>
+  </si>
+  <si>
+    <t>МОАИС</t>
+  </si>
+  <si>
+    <t>ИВТ</t>
+  </si>
+  <si>
+    <t>КБ</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>5 - БИ</t>
+  </si>
+  <si>
+    <t>175-713-882 00</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>2 - ПРИ экон мех  ЗО 3 - ПМИ 7 - ПРИ соц</t>
+  </si>
+  <si>
+    <t>181-696-246 03</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>2 - ПРИ экон мех  ЗО 3 - ПРИ соц  ЗО</t>
+  </si>
+  <si>
+    <t>159-154-515 80</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Физика Прикладные математика и физика 5 - МиММ 6 - ЭиН</t>
+  </si>
+  <si>
+    <t>147-502-919 65</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>159-978-661 62</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>173-463-861 88</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>1 - ПРИ экон мех  ЗО</t>
+  </si>
+  <si>
+    <t>192-373-822 89</t>
+  </si>
+  <si>
+    <t>162-860-734 79</t>
+  </si>
+  <si>
     <t xml:space="preserve">ПИ ЗО </t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1 - ПРИ соц  ЗО 2 - ПРИ экон мех  ЗО</t>
-  </si>
-  <si>
-    <t>163-393-138 69</t>
-  </si>
-  <si>
-    <t>Айталиева Мадина Муратовна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПИ ЗО ОК </t>
-  </si>
-  <si>
-    <t>167-478-250 11</t>
-  </si>
-  <si>
-    <t>Никитин Михаил Васильевич</t>
-  </si>
-  <si>
-    <t>142-053-977 39</t>
-  </si>
-  <si>
-    <t>Пушкина Мария Александровна</t>
-  </si>
-  <si>
-    <t>оригинал</t>
-  </si>
-  <si>
-    <t>лично</t>
-  </si>
-  <si>
-    <t>174-829-215 99</t>
-  </si>
-  <si>
-    <t>Власов Илья Павлович</t>
-  </si>
-  <si>
-    <t>161-217-059 27</t>
-  </si>
-  <si>
-    <t>Калинин Даниил Александрович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПИ ЗО ПИ ЗО </t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2 - ПРИ соц  ЗО 3 - ПРИ экон мех  ЗО</t>
-  </si>
-  <si>
-    <t>189-210-930 85</t>
-  </si>
-  <si>
-    <t>ПИ</t>
-  </si>
-  <si>
-    <t>ПИ ЗО</t>
-  </si>
-  <si>
-    <t>2 - ПРИ мех 3 - ПМИ</t>
-  </si>
-  <si>
-    <t>Нет документа об образовании</t>
-  </si>
-  <si>
-    <t>163-058-522 55</t>
-  </si>
-  <si>
-    <t>162-637-122 58</t>
-  </si>
-  <si>
-    <t>158-628-694 21</t>
-  </si>
-  <si>
-    <t>2 - ПРИ экон мех  ЗО</t>
-  </si>
-  <si>
-    <t>161-183-881 62</t>
-  </si>
-  <si>
-    <t>Баженов Данила Дмитриевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КБ ОП </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПИ ЗО ОП </t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>1 - БИ ОП 3 - Менедж ОП 4 - ИСТ ОП</t>
-  </si>
-  <si>
-    <t>000122254</t>
-  </si>
-  <si>
-    <t>ПИ ЗО ОК</t>
-  </si>
-  <si>
-    <t>2 - ПРИ экон мех  ЗО 2 - ПРИ экон мех  ЗО ОК 3 - ППО  ЗО ОК 4 - ПРИ соц  ЗО ОК 5 - ППО  ЗО ОК 6 - Соц  ЗО ОК 7 - Серв  ЗО ОК</t>
+    <t>Радиофизика 2 - ПРИ мех 3 - ПРИ соц 4 - ПРИ экон мех  ЗО 5 - ПРИ соц  ЗО</t>
+  </si>
+  <si>
+    <t>192-733-071 78</t>
+  </si>
+  <si>
+    <t>192-315-343 57</t>
+  </si>
+  <si>
+    <t>1 - ППО  ЗО Журналистика  ЗО</t>
+  </si>
+  <si>
+    <t>203-190-052 01</t>
+  </si>
+  <si>
+    <t>1 - ПРИ соц  ЗО 2 - ПРИ экон мех  ЗО 4 - Серв  ЗО Педагогическое образование Физическая  ЗО</t>
+  </si>
+  <si>
+    <t>159-106-575 75</t>
+  </si>
+  <si>
+    <t>Журналистика  ЗО Организация работы с молодежью  ЗО 3 - ИТиСС</t>
   </si>
 </sst>
 </file>
@@ -504,7 +648,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,19 +705,19 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" t="s">
         <v>15</v>
-      </c>
-      <c r="N3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>16</v>
       </c>
       <c r="S3" t="s">
         <v>7</v>
@@ -581,13 +725,13 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
       </c>
       <c r="P4" t="s">
         <v>11</v>
@@ -598,10 +742,10 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -615,56 +759,56 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="P6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" t="s">
         <v>24</v>
-      </c>
-      <c r="S6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
         <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="P7" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7" t="s">
         <v>24</v>
-      </c>
-      <c r="S7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
+      <c r="P8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="s">
         <v>30</v>
-      </c>
-      <c r="J8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>32</v>
       </c>
       <c r="S8" t="s">
         <v>7</v>
@@ -672,39 +816,48 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
+      <c r="K9" t="s">
         <v>34</v>
       </c>
-      <c r="G9" t="s">
+      <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="J9" t="s">
-        <v>31</v>
+      <c r="M9" t="s">
+        <v>36</v>
       </c>
       <c r="P9" t="s">
         <v>6</v>
       </c>
       <c r="Q9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S9" t="s">
         <v>7</v>
       </c>
       <c r="T9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P10" t="s">
         <v>6</v>
@@ -713,18 +866,27 @@
         <v>7</v>
       </c>
       <c r="T10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="K11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" t="s">
+        <v>43</v>
       </c>
       <c r="P11" t="s">
         <v>6</v>
@@ -733,88 +895,453 @@
         <v>7</v>
       </c>
       <c r="T11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P12" t="s">
         <v>6</v>
       </c>
       <c r="Q12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="S12" t="s">
         <v>7</v>
       </c>
       <c r="T12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="P13" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="Q13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="S13" t="s">
         <v>7</v>
       </c>
       <c r="T13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P14" t="s">
         <v>6</v>
       </c>
       <c r="Q14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="S14" t="s">
         <v>7</v>
       </c>
       <c r="T14" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>66</v>
+      </c>
+      <c r="S15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>71</v>
+      </c>
+      <c r="S16" t="s">
+        <v>7</v>
+      </c>
+      <c r="T16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>75</v>
+      </c>
+      <c r="S17" t="s">
+        <v>7</v>
+      </c>
+      <c r="T17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>79</v>
+      </c>
+      <c r="S18" t="s">
+        <v>7</v>
+      </c>
+      <c r="T18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" t="s">
+        <v>82</v>
+      </c>
+      <c r="L19" t="s">
+        <v>83</v>
+      </c>
+      <c r="M19" t="s">
+        <v>84</v>
+      </c>
+      <c r="P19" t="s">
+        <v>6</v>
+      </c>
+      <c r="S19" t="s">
+        <v>7</v>
+      </c>
+      <c r="T19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" t="s">
+        <v>69</v>
+      </c>
+      <c r="M20" t="s">
+        <v>42</v>
+      </c>
+      <c r="P20" t="s">
+        <v>6</v>
+      </c>
+      <c r="S20" t="s">
+        <v>7</v>
+      </c>
+      <c r="T20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" t="s">
+        <v>88</v>
+      </c>
+      <c r="N21" t="s">
+        <v>14</v>
+      </c>
+      <c r="P21" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>89</v>
+      </c>
+      <c r="S21" t="s">
+        <v>7</v>
+      </c>
+      <c r="T21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22" t="s">
+        <v>7</v>
+      </c>
+      <c r="T22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>93</v>
+      </c>
+      <c r="S23" t="s">
+        <v>7</v>
+      </c>
+      <c r="T23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24" t="s">
+        <v>6</v>
+      </c>
+      <c r="S24" t="s">
+        <v>7</v>
+      </c>
+      <c r="T24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>96</v>
+      </c>
+      <c r="S25" t="s">
+        <v>7</v>
+      </c>
+      <c r="T25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>98</v>
+      </c>
+      <c r="S26" t="s">
+        <v>7</v>
+      </c>
+      <c r="T26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>100</v>
+      </c>
+      <c r="S27" t="s">
+        <v>7</v>
+      </c>
+      <c r="T27" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/tables/zo.xlsx
+++ b/tables/zo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="127">
   <si>
     <t>161-362-721 45</t>
   </si>
@@ -317,6 +317,84 @@
   </si>
   <si>
     <t>Журналистика  ЗО Организация работы с молодежью  ЗО 3 - ИТиСС</t>
+  </si>
+  <si>
+    <t>ОО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - БИ </t>
+  </si>
+  <si>
+    <t>148-304-658 66</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - ИСТ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - ПРИ экон мех ЗО 3 - ПРИ соц ЗО </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - ПРИ мех 3 - ПМИ 5 - МКН 6 - ИСТ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - МиММ 6 - ЭиН </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - ПРИ экон мех ЗО </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - ПРИ соц ЗО 2 - ПРИ экон мех ЗО </t>
+  </si>
+  <si>
+    <t>162-403-576 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - ППО ЗО </t>
+  </si>
+  <si>
+    <t>160-144-783 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - ИТиСС </t>
+  </si>
+  <si>
+    <t>178-363-588 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - ПРИ экон мех ЗО </t>
+  </si>
+  <si>
+    <t>162-624-204 42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - ПРИ соц ЗО 3 - ПРИ экон мех ЗО </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - ПРИ соц ЗО 2 - ПРИ экон мех ЗО 4 - Серв ЗО </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - ПРИ мех 3 - ПРИ соц 4 - ПРИ экон мех ЗО 5 - ПРИ соц ЗО </t>
+  </si>
+  <si>
+    <t>161-297-654 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - ПГ ЗО </t>
+  </si>
+  <si>
+    <t>161-953-229 73</t>
   </si>
 </sst>
 </file>
@@ -648,7 +726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1344,6 +1422,961 @@
         <v>38</v>
       </c>
     </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>101</v>
+      </c>
+      <c r="I28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" t="s">
+        <v>62</v>
+      </c>
+      <c r="K28" t="s">
+        <v>63</v>
+      </c>
+      <c r="L28" t="s">
+        <v>64</v>
+      </c>
+      <c r="M28" t="s">
+        <v>65</v>
+      </c>
+      <c r="N28" t="s">
+        <v>29</v>
+      </c>
+      <c r="P28" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>102</v>
+      </c>
+      <c r="R28" t="s">
+        <v>7</v>
+      </c>
+      <c r="S28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>104</v>
+      </c>
+      <c r="K29" t="s">
+        <v>105</v>
+      </c>
+      <c r="L29" t="s">
+        <v>106</v>
+      </c>
+      <c r="M29" t="s">
+        <v>107</v>
+      </c>
+      <c r="N29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P29" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>108</v>
+      </c>
+      <c r="R29" t="s">
+        <v>7</v>
+      </c>
+      <c r="S29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" t="s">
+        <v>73</v>
+      </c>
+      <c r="K30" t="s">
+        <v>43</v>
+      </c>
+      <c r="L30" t="s">
+        <v>5</v>
+      </c>
+      <c r="M30" t="s">
+        <v>74</v>
+      </c>
+      <c r="N30" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>109</v>
+      </c>
+      <c r="R30" t="s">
+        <v>7</v>
+      </c>
+      <c r="S30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31" t="s">
+        <v>5</v>
+      </c>
+      <c r="L31" t="s">
+        <v>42</v>
+      </c>
+      <c r="M31" t="s">
+        <v>43</v>
+      </c>
+      <c r="N31" t="s">
+        <v>29</v>
+      </c>
+      <c r="P31" t="s">
+        <v>6</v>
+      </c>
+      <c r="R31" t="s">
+        <v>7</v>
+      </c>
+      <c r="S31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" t="s">
+        <v>35</v>
+      </c>
+      <c r="M32" t="s">
+        <v>36</v>
+      </c>
+      <c r="N32" t="s">
+        <v>29</v>
+      </c>
+      <c r="P32" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>110</v>
+      </c>
+      <c r="R32" t="s">
+        <v>7</v>
+      </c>
+      <c r="S32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" t="s">
+        <v>77</v>
+      </c>
+      <c r="K33" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M33" t="s">
+        <v>78</v>
+      </c>
+      <c r="N33" t="s">
+        <v>29</v>
+      </c>
+      <c r="P33" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>111</v>
+      </c>
+      <c r="R33" t="s">
+        <v>7</v>
+      </c>
+      <c r="S33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="J34" t="s">
+        <v>81</v>
+      </c>
+      <c r="K34" t="s">
+        <v>82</v>
+      </c>
+      <c r="L34" t="s">
+        <v>83</v>
+      </c>
+      <c r="M34" t="s">
+        <v>84</v>
+      </c>
+      <c r="N34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" t="s">
+        <v>6</v>
+      </c>
+      <c r="R34" t="s">
+        <v>7</v>
+      </c>
+      <c r="S34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>86</v>
+      </c>
+      <c r="K35" t="s">
+        <v>69</v>
+      </c>
+      <c r="L35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M35" t="s">
+        <v>42</v>
+      </c>
+      <c r="N35" t="s">
+        <v>29</v>
+      </c>
+      <c r="P35" t="s">
+        <v>6</v>
+      </c>
+      <c r="R35" t="s">
+        <v>7</v>
+      </c>
+      <c r="S35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="J36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K36" t="s">
+        <v>4</v>
+      </c>
+      <c r="L36" t="s">
+        <v>29</v>
+      </c>
+      <c r="M36" t="s">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>29</v>
+      </c>
+      <c r="P36" t="s">
+        <v>6</v>
+      </c>
+      <c r="R36" t="s">
+        <v>7</v>
+      </c>
+      <c r="S36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" t="s">
+        <v>36</v>
+      </c>
+      <c r="K37" t="s">
+        <v>29</v>
+      </c>
+      <c r="L37" t="s">
+        <v>88</v>
+      </c>
+      <c r="M37" t="s">
+        <v>29</v>
+      </c>
+      <c r="N37" t="s">
+        <v>14</v>
+      </c>
+      <c r="P37" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>112</v>
+      </c>
+      <c r="R37" t="s">
+        <v>7</v>
+      </c>
+      <c r="S37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2</v>
+      </c>
+      <c r="J38" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" t="s">
+        <v>29</v>
+      </c>
+      <c r="L38" t="s">
+        <v>29</v>
+      </c>
+      <c r="M38" t="s">
+        <v>29</v>
+      </c>
+      <c r="N38" t="s">
+        <v>14</v>
+      </c>
+      <c r="P38" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>113</v>
+      </c>
+      <c r="R38" t="s">
+        <v>7</v>
+      </c>
+      <c r="S38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+      <c r="J39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" t="s">
+        <v>29</v>
+      </c>
+      <c r="L39" t="s">
+        <v>29</v>
+      </c>
+      <c r="M39" t="s">
+        <v>29</v>
+      </c>
+      <c r="N39" t="s">
+        <v>14</v>
+      </c>
+      <c r="P39" t="s">
+        <v>6</v>
+      </c>
+      <c r="R39" t="s">
+        <v>7</v>
+      </c>
+      <c r="S39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+      <c r="J40" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" t="s">
+        <v>29</v>
+      </c>
+      <c r="L40" t="s">
+        <v>29</v>
+      </c>
+      <c r="M40" t="s">
+        <v>29</v>
+      </c>
+      <c r="N40" t="s">
+        <v>29</v>
+      </c>
+      <c r="P40" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>115</v>
+      </c>
+      <c r="R40" t="s">
+        <v>7</v>
+      </c>
+      <c r="S40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2</v>
+      </c>
+      <c r="J41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41" t="s">
+        <v>29</v>
+      </c>
+      <c r="L41" t="s">
+        <v>29</v>
+      </c>
+      <c r="M41" t="s">
+        <v>29</v>
+      </c>
+      <c r="N41" t="s">
+        <v>29</v>
+      </c>
+      <c r="P41" t="s">
+        <v>6</v>
+      </c>
+      <c r="R41" t="s">
+        <v>7</v>
+      </c>
+      <c r="S41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" t="s">
+        <v>101</v>
+      </c>
+      <c r="G42" t="s">
+        <v>2</v>
+      </c>
+      <c r="J42" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" t="s">
+        <v>29</v>
+      </c>
+      <c r="L42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N42" t="s">
+        <v>29</v>
+      </c>
+      <c r="P42" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>117</v>
+      </c>
+      <c r="R42" t="s">
+        <v>7</v>
+      </c>
+      <c r="S42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+      <c r="J43" t="s">
+        <v>29</v>
+      </c>
+      <c r="K43" t="s">
+        <v>29</v>
+      </c>
+      <c r="L43" t="s">
+        <v>29</v>
+      </c>
+      <c r="M43" t="s">
+        <v>29</v>
+      </c>
+      <c r="N43" t="s">
+        <v>29</v>
+      </c>
+      <c r="P43" t="s">
+        <v>6</v>
+      </c>
+      <c r="R43" t="s">
+        <v>7</v>
+      </c>
+      <c r="S43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="J44" t="s">
+        <v>29</v>
+      </c>
+      <c r="K44" t="s">
+        <v>29</v>
+      </c>
+      <c r="L44" t="s">
+        <v>29</v>
+      </c>
+      <c r="M44" t="s">
+        <v>29</v>
+      </c>
+      <c r="N44" t="s">
+        <v>29</v>
+      </c>
+      <c r="P44" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>119</v>
+      </c>
+      <c r="R44" t="s">
+        <v>7</v>
+      </c>
+      <c r="S44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+      <c r="J45" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" t="s">
+        <v>29</v>
+      </c>
+      <c r="L45" t="s">
+        <v>29</v>
+      </c>
+      <c r="M45" t="s">
+        <v>29</v>
+      </c>
+      <c r="N45" t="s">
+        <v>29</v>
+      </c>
+      <c r="P45" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>119</v>
+      </c>
+      <c r="R45" t="s">
+        <v>7</v>
+      </c>
+      <c r="S45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
+      <c r="J46" t="s">
+        <v>29</v>
+      </c>
+      <c r="K46" t="s">
+        <v>29</v>
+      </c>
+      <c r="L46" t="s">
+        <v>29</v>
+      </c>
+      <c r="M46" t="s">
+        <v>29</v>
+      </c>
+      <c r="N46" t="s">
+        <v>29</v>
+      </c>
+      <c r="P46" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>121</v>
+      </c>
+      <c r="R46" t="s">
+        <v>7</v>
+      </c>
+      <c r="S46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" t="s">
+        <v>29</v>
+      </c>
+      <c r="K47" t="s">
+        <v>29</v>
+      </c>
+      <c r="L47" t="s">
+        <v>29</v>
+      </c>
+      <c r="M47" t="s">
+        <v>29</v>
+      </c>
+      <c r="N47" t="s">
+        <v>29</v>
+      </c>
+      <c r="P47" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>122</v>
+      </c>
+      <c r="R47" t="s">
+        <v>7</v>
+      </c>
+      <c r="S47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+      <c r="J48" t="s">
+        <v>29</v>
+      </c>
+      <c r="K48" t="s">
+        <v>29</v>
+      </c>
+      <c r="L48" t="s">
+        <v>29</v>
+      </c>
+      <c r="M48" t="s">
+        <v>29</v>
+      </c>
+      <c r="N48" t="s">
+        <v>29</v>
+      </c>
+      <c r="P48" t="s">
+        <v>6</v>
+      </c>
+      <c r="R48" t="s">
+        <v>7</v>
+      </c>
+      <c r="S48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+      <c r="J49" t="s">
+        <v>29</v>
+      </c>
+      <c r="K49" t="s">
+        <v>29</v>
+      </c>
+      <c r="L49" t="s">
+        <v>29</v>
+      </c>
+      <c r="M49" t="s">
+        <v>29</v>
+      </c>
+      <c r="N49" t="s">
+        <v>29</v>
+      </c>
+      <c r="P49" t="s">
+        <v>6</v>
+      </c>
+      <c r="R49" t="s">
+        <v>7</v>
+      </c>
+      <c r="S49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" t="s">
+        <v>101</v>
+      </c>
+      <c r="I50" t="s">
+        <v>2</v>
+      </c>
+      <c r="J50" t="s">
+        <v>29</v>
+      </c>
+      <c r="K50" t="s">
+        <v>29</v>
+      </c>
+      <c r="L50" t="s">
+        <v>29</v>
+      </c>
+      <c r="M50" t="s">
+        <v>29</v>
+      </c>
+      <c r="N50" t="s">
+        <v>29</v>
+      </c>
+      <c r="P50" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>123</v>
+      </c>
+      <c r="R50" t="s">
+        <v>7</v>
+      </c>
+      <c r="S50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51" t="s">
+        <v>29</v>
+      </c>
+      <c r="K51" t="s">
+        <v>29</v>
+      </c>
+      <c r="L51" t="s">
+        <v>29</v>
+      </c>
+      <c r="M51" t="s">
+        <v>29</v>
+      </c>
+      <c r="N51" t="s">
+        <v>29</v>
+      </c>
+      <c r="P51" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>125</v>
+      </c>
+      <c r="R51" t="s">
+        <v>7</v>
+      </c>
+      <c r="S51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="J52" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" t="s">
+        <v>29</v>
+      </c>
+      <c r="L52" t="s">
+        <v>29</v>
+      </c>
+      <c r="M52" t="s">
+        <v>29</v>
+      </c>
+      <c r="N52" t="s">
+        <v>29</v>
+      </c>
+      <c r="P52" t="s">
+        <v>6</v>
+      </c>
+      <c r="R52" t="s">
+        <v>7</v>
+      </c>
+      <c r="S52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="A53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+      <c r="J53" t="s">
+        <v>29</v>
+      </c>
+      <c r="K53" t="s">
+        <v>29</v>
+      </c>
+      <c r="L53" t="s">
+        <v>29</v>
+      </c>
+      <c r="M53" t="s">
+        <v>29</v>
+      </c>
+      <c r="N53" t="s">
+        <v>29</v>
+      </c>
+      <c r="P53" t="s">
+        <v>6</v>
+      </c>
+      <c r="R53" t="s">
+        <v>7</v>
+      </c>
+      <c r="S53" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
